--- a/go/parseExcelToMysql/excel1.xlsx
+++ b/go/parseExcelToMysql/excel1.xlsx
@@ -84,11 +84,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,13 +101,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,9 +122,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +152,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -153,75 +168,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,181 +258,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -465,16 +480,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,16 +506,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,162 +543,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,40 +1103,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
-        <v>44741.6437152778</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
